--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.765706124786289</v>
+        <v>-3.578826950579105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.316988499804888</v>
+        <v>-1.15589337564149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.3238417872191</v>
+        <v>1.387734326964088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.372338102190659</v>
+        <v>-0.9053379729308999</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05379289169482394</v>
+        <v>-0.05142392515894029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01823137984871767</v>
+        <v>-0.01613077876293818</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01671748612237839</v>
+        <v>0.01802758671284343</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02023043677680999</v>
+        <v>-0.01336323029766642</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.111881813770563</v>
+        <v>4.299868272884147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.066217911944261</v>
+        <v>6.956561591502965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.817807128190815</v>
+        <v>9.375996190559231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.597056252865604</v>
+        <v>7.94061844404684</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06349947819674283</v>
+        <v>0.06695615762395821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1118373709886401</v>
+        <v>0.1097426329810326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1353446795877422</v>
+        <v>0.1288292371791231</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1449897481460938</v>
+        <v>0.1334585546943678</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.570930021894634</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.300599912017286</v>
+        <v>1.300599912017275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01624956921295631</v>
@@ -749,7 +749,7 @@
         <v>0.02088358096009476</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02276663975739633</v>
+        <v>0.02276663975739613</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.503839543815379</v>
+        <v>-2.721381379009966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.393326819611357</v>
+        <v>3.467241584915718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9535435615601143</v>
+        <v>-1.295341218957849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.77220365040873</v>
+        <v>-1.967162216102411</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04141034161963457</v>
+        <v>-0.04539526974857221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05465143622321856</v>
+        <v>0.0548613557203149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01281584931323403</v>
+        <v>-0.01692190139192406</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03038804147707573</v>
+        <v>-0.03327222801010171</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.052268840305055</v>
+        <v>4.062439559072451</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.05955265019067</v>
+        <v>9.91398489021663</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.220890367383457</v>
+        <v>4.52641516462451</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.536698769830217</v>
+        <v>4.571115552549353</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07169797560558988</v>
+        <v>0.07222558199939141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1726045457568917</v>
+        <v>0.1685171111437979</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05677959456991021</v>
+        <v>0.06142654360917047</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0817321730361943</v>
+        <v>0.08240552040801523</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.980395984853378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.191523786047218</v>
+        <v>-3.191523786047223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08833479828142245</v>
@@ -849,7 +849,7 @@
         <v>-0.02960633200546658</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.06240951889836086</v>
+        <v>-0.06240951889836098</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.16956223233743</v>
+        <v>-11.57960441540664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.786446432126894</v>
+        <v>-7.971387895798457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.139445593426833</v>
+        <v>-8.09164546416158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.245062052329418</v>
+        <v>-8.659128753388163</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1863272138453545</v>
+        <v>-0.1950218267285651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1407839300992685</v>
+        <v>-0.1278428759341852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1171126266839414</v>
+        <v>-0.1159343662341491</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1503814588450569</v>
+        <v>-0.1592928356265913</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.729402390697006</v>
+        <v>1.782417940570511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.341457918325716</v>
+        <v>5.508126345156898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.803597348947953</v>
+        <v>4.058641131550723</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.396415589596539</v>
+        <v>2.322802645541962</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03349517409787581</v>
+        <v>0.03504277971508404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09851656914667786</v>
+        <v>0.1007553994720224</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06036876792073659</v>
+        <v>0.06193958676224018</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04957566814325036</v>
+        <v>0.05093612825316685</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.801775749117506</v>
+        <v>-1.69212090711841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.499772362855933</v>
+        <v>2.731903305710097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.132203989458933</v>
+        <v>-0.006434554508375118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.243826743119006</v>
+        <v>-1.061144685649408</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02916323513818467</v>
+        <v>-0.02732422053942747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03896758441102345</v>
+        <v>0.04328962252902967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.001761419840306351</v>
+        <v>-0.0005764253978913119</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02113592221601176</v>
+        <v>-0.01826270089536085</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.034710839956372</v>
+        <v>3.179878149986967</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.187787653008852</v>
+        <v>7.378333114995002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.194827565022586</v>
+        <v>4.333974311233827</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.571029390211969</v>
+        <v>3.586596936288929</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05092796170733112</v>
+        <v>0.05348114458953988</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1174330007208267</v>
+        <v>0.1210531372710547</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0570776426709499</v>
+        <v>0.05922030616164889</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06526164068162511</v>
+        <v>0.06448266147178611</v>
       </c>
     </row>
     <row r="16">
